--- a/assets/files/excel/2418.xlsx
+++ b/assets/files/excel/2418.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="noyTSnIfxTCzdjaW7a37oLeq2QL/p08pWG1+Hghzx6sJUuBrlo0deE1tB6oX31zHpdW9DAHpDXHnUCpzQ4JAkA==" workbookSaltValue="/BKVw/cVqzhr6A2iL44KoQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Такси &quot;Скороход&quot;" sheetId="1" r:id="rId1"/>
@@ -1179,11 +1179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445699920"/>
-        <c:axId val="410336112"/>
+        <c:axId val="306150040"/>
+        <c:axId val="306153176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445699920"/>
+        <c:axId val="306150040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,12 +1193,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="410336112"/>
+        <c:crossAx val="306153176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410336112"/>
+        <c:axId val="306153176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445699920"/>
+        <c:crossAx val="306150040"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1520,11 +1520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488463824"/>
-        <c:axId val="283309936"/>
+        <c:axId val="306153960"/>
+        <c:axId val="306154352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488463824"/>
+        <c:axId val="306153960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,12 +1534,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283309936"/>
+        <c:crossAx val="306154352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283309936"/>
+        <c:axId val="306154352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="488463824"/>
+        <c:crossAx val="306153960"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1621,7 +1621,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,9 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2112,7 +2110,7 @@
       <c r="C16" s="90"/>
       <c r="D16" s="87"/>
     </row>
-    <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>14</v>
       </c>
@@ -2312,9 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2428,7 +2424,7 @@
         <v>121</v>
       </c>
       <c r="C13" t="str">
-        <f>IFERROR(IF('Такси "Скороход"'!B13='Такси "Скороход" (решение)'!B13,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Такси "Скороход"'!B13-'Такси "Скороход" (решение)'!B13)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2441,7 +2437,7 @@
       <c r="C16" s="90"/>
       <c r="D16" s="87"/>
     </row>
-    <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>14</v>
       </c>
@@ -2537,7 +2533,7 @@
         <v>144</v>
       </c>
       <c r="C25" t="str">
-        <f>IFERROR(IF('Такси "Скороход"'!B25='Такси "Скороход" (решение)'!B25,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Такси "Скороход"'!B25-'Такси "Скороход" (решение)'!B25)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2642,7 +2638,7 @@
         <v>295</v>
       </c>
       <c r="I35" t="str">
-        <f>IFERROR(IF(SUM('Такси "Скороход"'!B35:H35)=SUM('Такси "Скороход" (решение)'!B35:H35),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Такси "Скороход"'!B35:H35)-SUM('Такси "Скороход" (решение)'!B35:H35))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2679,7 +2675,7 @@
         <v>199</v>
       </c>
       <c r="I36" t="str">
-        <f>IFERROR(IF(SUM('Такси "Скороход"'!B36:H36)=SUM('Такси "Скороход" (решение)'!B36:H36),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Такси "Скороход"'!B36:H36)-SUM('Такси "Скороход" (решение)'!B36:H36))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2716,7 +2712,7 @@
         <v>127</v>
       </c>
       <c r="I37" t="str">
-        <f>IFERROR(IF(SUM('Такси "Скороход"'!B37:H37)=SUM('Такси "Скороход" (решение)'!B37:H37),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Такси "Скороход"'!B37:H37)-SUM('Такси "Скороход" (решение)'!B37:H37))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2750,7 +2746,7 @@
       <formula>"верно"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I37 C25 C13">
+  <conditionalFormatting sqref="C25 C13 I35:I37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"верно"</formula>
     </cfRule>
